--- a/Supply Chain Temperatures.xlsx
+++ b/Supply Chain Temperatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luxma\OneDrive\Documents\Cornell\Projects\MC Milk\MC-2020\Tim_ESL\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luxma\OneDrive\Documents\GitHub\MC_MilkSporeModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494B1278-BAA0-45D9-B630-AF2453CE9DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCD975-337D-442A-96B2-E059C8FA897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B96351CE-F793-4607-BD69-1882D8DBF459}"/>
+    <workbookView xWindow="27945" yWindow="3690" windowWidth="18720" windowHeight="15315" xr2:uid="{B96351CE-F793-4607-BD69-1882D8DBF459}"/>
   </bookViews>
   <sheets>
     <sheet name="Selected Data" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Stage</t>
   </si>
@@ -267,13 +267,7 @@
     <t>https://watermark.silverchair.com/0362-028x-73_2_312.pdf?token=AQECAHi208BE49Ooan9kkhW_Ercy7Dm3ZL_9Cf3qfKAc485ysgAAAqEwggKdBgkqhkiG9w0BBwagggKOMIICigIBADCCAoMGCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQMDLTti6vhAiJW7XlbAgEQgIICVNksAcebMH47bmGi3KA4Yfoxos-q57LTlI9JsNjfkv4KJENUTeUnGajlAHkg1NwdP3juTItuenHcO62nbwUTGELy010mcb3f-r47o5fVfsm8c2K2gEtC3ykSj5ze6ARjNwGEJtfLCtTcnyOz2g14F0FQqau4itvvKeYsLr6rd0UrlmqhURHo1qt9pvCzi3pjntaw4-MY-BmFU5jILnxN50vPevc3L8KtEPvXyZ9yozPsVwK25QtX4udWgeb41uVemJTJjHS7QGxaHNF9RBMovsskxhzZIMJDhYh6-esSqDUnD0wIn3w65_a2tiwhyxV2A1h2Hzz9bN2Qwuq746z4sMIQEOeAcTmxSjVi_Q1Ydxufve8MFpfv7DnUhGBWBg9HVsx0WecO1VN_HmummrpwO27L04tDGBEbMPcQsCdrvS-tGS8OkKL2jVL07_PhAEF9fEA6rCSGVbn8kt6Ix4tXpd2g6P2Hw_rWW0zt5JQk7DzlIzBqpO52_m2vNJBwjvX-RNE_DM9g-lu3Jo6M8KrixwGrn06MTNtLv6V3OGjq0senj9JI8Q92lW4nz_Oke_INIMBSCsin4CDro8yr-dfC_xbFfHKbZHJJAV_v6g8wnPOP0R-u1OtNhkrenJHWd-8gpBBCk6jLuwB9u5GDpmEyhR8K3GQm2j6stPAXvkNkxLl1IQeNvkZGVJM9D2DpZ4I8LX5nGPEszoMU9tp05W7ci8HgJCQFcPlsHUB0kdL-lDH_UWGY3pKwypdKsTllwFrYNpWXqEElKTkFWEbZFODZcxt3ifFy</t>
   </si>
   <si>
-    <t>Used in current model, Laplace Distribution. Test until stationary phase is observed</t>
-  </si>
-  <si>
     <t>2007 study data fitted from RTI/KSU/TSU to Laplace distribution</t>
-  </si>
-  <si>
-    <t>10 is product temp, so put milk at ambient temp until reaches 10C, then move to consumer refrigeration phase</t>
   </si>
   <si>
     <t>2 Triangle distributions of expert elicitation</t>
@@ -329,9 +323,6 @@
     <t>2015 FDA Soft Ripened Cheese Listerosis Risk Assesment</t>
   </si>
   <si>
-    <t xml:space="preserve">Triangular distribution from expert elicitation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1999 FDA Food Temperature Survey </t>
   </si>
   <si>
@@ -339,9 +330,6 @@
   </si>
   <si>
     <t>2013 Martin et al. light oxidation in milk study</t>
-  </si>
-  <si>
-    <t>Median was ~24h of Upstate NY Milk Display Case</t>
   </si>
   <si>
     <t>26 min</t>
@@ -388,18 +376,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -415,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -424,16 +406,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -749,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A478589E-B9BE-48B4-A0CB-20AFD7A2EDCE}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +741,7 @@
     <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -773,29 +749,26 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
@@ -804,47 +777,44 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
@@ -853,20 +823,17 @@
       <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -880,16 +847,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -902,14 +866,11 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -920,7 +881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -963,7 +924,7 @@
     <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1027,7 +988,7 @@
       <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1065,7 +1026,7 @@
       <c r="T2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1197,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1239,7 +1200,7 @@
         <v>32</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1292,7 +1253,7 @@
       <c r="R9" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1347,7 +1308,7 @@
       <c r="R10" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1402,7 +1363,7 @@
       <c r="R11" t="s">
         <v>41</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="U11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1467,7 +1428,7 @@
         <v>75</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>76</v>
@@ -1477,14 +1438,14 @@
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="N14">
         <v>2015</v>
@@ -1493,22 +1454,22 @@
         <v>71</v>
       </c>
       <c r="P14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="S14" t="s">
         <v>81</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1525,9 +1486,8 @@
         <v>10</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="U15"/>
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
